--- a/Excel/Simatm14_1_1_1_BH.xlsx
+++ b/Excel/Simatm14_1_1_1_BH.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BNI All\ICONS NEW\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BNI All\ICONS DEMO SIMATM\ICONS-main\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{591852B8-2ED0-42FC-A13A-EEC5A9022CA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C9D4271-6790-4D66-888C-335D7BB7E01B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11520" xr2:uid="{5E7B8BF1-A296-4B05-868D-4DC65ED38144}"/>
   </bookViews>
   <sheets>
-    <sheet name="Simatm14_1_1_3_BH" sheetId="1" r:id="rId1"/>
+    <sheet name="Simatm14_1_1_1_BH" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029" calcMode="manual" concurrentCalc="0"/>
   <extLst>
@@ -462,7 +462,7 @@
   <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" zoomScale="70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
